--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
@@ -55,31 +58,28 @@
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>cheap</t>
   </si>
   <si>
     <t>ok</t>
@@ -88,7 +88,7 @@
     <t>thought</t>
   </si>
   <si>
-    <t>cheap</t>
+    <t>though</t>
   </si>
   <si>
     <t>size</t>
@@ -100,24 +100,21 @@
     <t>work</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>price</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
@@ -139,7 +136,13 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
@@ -521,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>0.8571428571428571</v>
@@ -640,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>0.8307692307692308</v>
@@ -690,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.7688172043010753</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.6989247311827957</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L5">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7378640776699029</v>
+        <v>0.734375</v>
       </c>
       <c r="C6">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.46875</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7323943661971831</v>
+        <v>0.7233009708737864</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.3483606557377049</v>
+        <v>0.53125</v>
       </c>
       <c r="L7">
-        <v>425</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>425</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>795</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7258064516129032</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C8">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.3098995695839311</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="L8">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>481</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6621621621621622</v>
+        <v>0.6148648648648649</v>
       </c>
       <c r="C9">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.2759336099585062</v>
+        <v>0.3475409836065574</v>
       </c>
       <c r="L9">
-        <v>133</v>
+        <v>424</v>
       </c>
       <c r="M9">
-        <v>133</v>
+        <v>424</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>349</v>
+        <v>796</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6545454545454545</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.1927710843373494</v>
+        <v>0.3045977011494253</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>134</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6134453781512605</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C11">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1008,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.1834862385321101</v>
+        <v>0.2634854771784232</v>
       </c>
       <c r="L11">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="M11">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>267</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4753623188405797</v>
+        <v>0.4985507246376812</v>
       </c>
       <c r="C12">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D12">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1058,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.07624890446976336</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="L12">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1054</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,7 +1093,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4105263157894737</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C13">
         <v>39</v>
@@ -1108,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.02530824140168722</v>
+        <v>0.1773700305810398</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1502</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,13 +1143,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4096385542168675</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1158,7 +1161,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14">
+        <v>0.07631578947368421</v>
+      </c>
+      <c r="L14">
+        <v>87</v>
+      </c>
+      <c r="M14">
+        <v>88</v>
+      </c>
+      <c r="N14">
+        <v>0.99</v>
+      </c>
+      <c r="O14">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1053</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1166,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3937007874015748</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1184,7 +1211,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15">
+        <v>0.03439325113562622</v>
+      </c>
+      <c r="L15">
+        <v>53</v>
+      </c>
+      <c r="M15">
+        <v>53</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1488</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1192,13 +1243,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3707865168539326</v>
+        <v>0.3127962085308057</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1210,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1218,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.34375</v>
+        <v>0.3125</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1236,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1244,13 +1295,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3069306930693069</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D18">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1262,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1270,13 +1321,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2938388625592417</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C19">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1288,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>149</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1296,13 +1347,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2010309278350516</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1314,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1322,13 +1373,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1847826086956522</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C21">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1340,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1348,13 +1399,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.180379746835443</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1366,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1374,25 +1425,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.175</v>
+        <v>0.1634472511144131</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>165</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1400,13 +1451,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1735905044510386</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C24">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="D24">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1418,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>557</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1426,13 +1477,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1613924050632911</v>
+        <v>0.155</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1444,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>265</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1452,25 +1503,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1343612334801762</v>
+        <v>0.1296829971181556</v>
       </c>
       <c r="C26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D26">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>393</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1478,13 +1529,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.117816091954023</v>
+        <v>0.1233480176211454</v>
       </c>
       <c r="C27">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D27">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1496,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>307</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1504,13 +1555,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1086142322097378</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1522,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>238</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1530,13 +1581,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1068493150684932</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="C29">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1548,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>326</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1556,13 +1607,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.06904231625835189</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1574,33 +1625,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.06260296540362438</v>
-      </c>
-      <c r="C31">
-        <v>38</v>
-      </c>
-      <c r="D31">
-        <v>39</v>
-      </c>
-      <c r="E31">
-        <v>0.03</v>
-      </c>
-      <c r="F31">
-        <v>0.97</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
